--- a/src/Input_Files/empire_names/iberia_empires.xlsx
+++ b/src/Input_Files/empire_names/iberia_empires.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python Scripts\imperator\ProvinceOrganizer\EP_ImperatorProvinceOrganizer\src\Input_Files\empire_names\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF489064-B97C-4DD6-B61E-DEF81BC204CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE513D6-0744-4913-BF5D-5DE2D364BEB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-135" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="4035" windowWidth="21600" windowHeight="11565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="empires" sheetId="1" r:id="rId1"/>
@@ -59,19 +59,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,11 +93,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/src/Input_Files/empire_names/iberia_empires.xlsx
+++ b/src/Input_Files/empire_names/iberia_empires.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python Scripts\imperator\ProvinceOrganizer\EP_ImperatorProvinceOrganizer\src\Input_Files\empire_names\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\CK\CKU_bestanden\Mapping\iberia_export_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE513D6-0744-4913-BF5D-5DE2D364BEB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0106EEA7-B110-44E0-8D1A-1E0746D8EB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="4035" windowWidth="21600" windowHeight="11565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="empires" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>RGB</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>government</t>
+  </si>
+  <si>
+    <t>feudal_government</t>
   </si>
 </sst>
 </file>
@@ -100,7 +103,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -117,7 +120,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -440,18 +443,19 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -477,6 +481,9 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
